--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\Angle\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A774A47B-6923-45F3-A8CF-80C7175868D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00202FB7-E857-4F17-819F-68CB3BF1D94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72C9DF1C-EE63-4E4C-89DC-C347C537C7A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27E704D7-E04C-4473-AC04-1C27E6D2CEAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FE6F8C-C16C-4B95-9B38-1E7C1A8DD743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF6C663-FABB-4238-8DDD-B26C005A623C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f17_4RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\Angle\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00202FB7-E857-4F17-819F-68CB3BF1D94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AAFA8C-F6D3-410E-AEDB-71CA58011A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27E704D7-E04C-4473-AC04-1C27E6D2CEAD}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{80BDB5B8-E005-4BEC-B259-CF554E355B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF6C663-FABB-4238-8DDD-B26C005A623C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC66D6D5-3F96-4746-B3C0-C4B500258D68}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\Angle\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AAFA8C-F6D3-410E-AEDB-71CA58011A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D17933-09D9-4D0E-AE47-E411116689D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{80BDB5B8-E005-4BEC-B259-CF554E355B8D}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{3F3FB88B-8390-4F05-B333-F1F60A925C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC66D6D5-3F96-4746-B3C0-C4B500258D68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E298FB-A80B-4E2A-B9AE-F5CF15C187CB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
